--- a/biology/Médecine/Muscle_scalène_antérieur/Muscle_scalène_antérieur.xlsx
+++ b/biology/Médecine/Muscle_scalène_antérieur/Muscle_scalène_antérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne_ant%C3%A9rieur</t>
+          <t>Muscle_scalène_antérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle scalène antérieur ou muscle scalène ventral de la 1ère côte (musculus scalenus anterior en latin)[1] est un muscle situé sur le côté du cou, derrière le muscle sterno-cléido-mastoïdien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle scalène antérieur ou muscle scalène ventral de la 1ère côte (musculus scalenus anterior en latin) est un muscle situé sur le côté du cou, derrière le muscle sterno-cléido-mastoïdien.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne_ant%C3%A9rieur</t>
+          <t>Muscle_scalène_antérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Insertions crâniennes
-Tubercule antérieur des processus transverses des vertèbres C3-C6.
-Trajet
-Le muscle descend, presque à la verticale, légèrement en avant et en dehors.
-Insertion costale
-Scalène antérieur : première côte, sur le tubercule du scalène antérieur (anciennement appelé tubercule de Lisfranc).
+          <t>Insertions crâniennes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tubercule antérieur des processus transverses des vertèbres C3-C6.
 </t>
         </is>
       </c>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne_ant%C3%A9rieur</t>
+          <t>Muscle_scalène_antérieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Innervation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ils sont innervés par le plexus cervical par les branches cervicales de C4 à C7.
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle descend, presque à la verticale, légèrement en avant et en dehors.
 </t>
         </is>
       </c>
@@ -560,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne_ant%C3%A9rieur</t>
+          <t>Muscle_scalène_antérieur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vascularisation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est vascularisé par une branche de l'artère thyroïdienne inférieure.
+          <t>Insertion costale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scalène antérieur : première côte, sur le tubercule du scalène antérieur (anciennement appelé tubercule de Lisfranc).
 </t>
         </is>
       </c>
@@ -591,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_scal%C3%A8ne_ant%C3%A9rieur</t>
+          <t>Muscle_scalène_antérieur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +631,78 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont innervés par le plexus cervical par les branches cervicales de C4 à C7.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_scalène_antérieur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_scal%C3%A8ne_ant%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est vascularisé par une branche de l'artère thyroïdienne inférieure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_scalène_antérieur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_scal%C3%A8ne_ant%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est :
 élévateur de la première côte en prenant appui sur le cou, il est donc inspirateur ;
@@ -621,31 +714,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Muscle_scal%C3%A8ne_ant%C3%A9rieur</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muscle_scalène_antérieur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Muscle_scal%C3%A8ne_ant%C3%A9rieur</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les scalènes sont disposés en deux-plans : l'antérieur en avant, le moyen et le postérieur en arrière. Ils délimitent ainsi avec les côtes
 le triangle interscalénique par où passent les branches du plexus brachial et l'artère sous-clavière.
